--- a/Participant's List and Login Details.xlsx
+++ b/Participant's List and Login Details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\OneDrive - MakeCloudWork Inc\DevelopIntelligence\Docusign\Delivery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9763DAAD-A9A7-48EF-9DE2-BD9F0D151A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCD811D-0D2A-4BC7-BFF2-3925B9AAB652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="4080" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>Name</t>
   </si>
@@ -254,6 +254,54 @@
   </si>
   <si>
     <t>Yaruo</t>
+  </si>
+  <si>
+    <t>https://bst-3662f855-5603-4e55-9e3c-2deb0490560a.bastion.azure.com/api/shareable-url/bf6cf0a7-1bc0-4dcb-a0c5-8662a085ea7f</t>
+  </si>
+  <si>
+    <t>https://bst-3662f855-5603-4e55-9e3c-2deb0490560a.bastion.azure.com/api/shareable-url/374c38c6-88d1-4af1-8d11-b2f66b087746</t>
+  </si>
+  <si>
+    <t>https://bst-3662f855-5603-4e55-9e3c-2deb0490560a.bastion.azure.com/api/shareable-url/e979dfe7-6554-448c-bbb4-e463b70ec403</t>
+  </si>
+  <si>
+    <t>https://bst-3662f855-5603-4e55-9e3c-2deb0490560a.bastion.azure.com/api/shareable-url/1a5b1773-0e9e-4831-8bf8-e92587a7bebd</t>
+  </si>
+  <si>
+    <t>https://bst-3662f855-5603-4e55-9e3c-2deb0490560a.bastion.azure.com/api/shareable-url/817118ff-b149-4bbf-87c8-f3ceae16e0bc</t>
+  </si>
+  <si>
+    <t>https://bst-3662f855-5603-4e55-9e3c-2deb0490560a.bastion.azure.com/api/shareable-url/b976d368-081d-414e-8432-3fed2b6dfa6c</t>
+  </si>
+  <si>
+    <t>https://bst-3662f855-5603-4e55-9e3c-2deb0490560a.bastion.azure.com/api/shareable-url/38687261-e682-4677-8f6d-a0f7ad7633ff</t>
+  </si>
+  <si>
+    <t>https://bst-3662f855-5603-4e55-9e3c-2deb0490560a.bastion.azure.com/api/shareable-url/43f93d88-fe8e-4fd7-a6f8-663d62f85696</t>
+  </si>
+  <si>
+    <t>https://bst-3662f855-5603-4e55-9e3c-2deb0490560a.bastion.azure.com/api/shareable-url/80ee5d1c-f0c0-4980-a80e-f067619ea8e9</t>
+  </si>
+  <si>
+    <t>https://bst-3662f855-5603-4e55-9e3c-2deb0490560a.bastion.azure.com/api/shareable-url/9235c4f6-44ff-44bd-91f3-76bae40279ad</t>
+  </si>
+  <si>
+    <t>https://bst-3662f855-5603-4e55-9e3c-2deb0490560a.bastion.azure.com/api/shareable-url/fab8817e-23f4-4e37-be0b-f4f2b56718ba</t>
+  </si>
+  <si>
+    <t>https://bst-3662f855-5603-4e55-9e3c-2deb0490560a.bastion.azure.com/api/shareable-url/0b1575b8-3406-4ad7-b5d1-728855490adf</t>
+  </si>
+  <si>
+    <t>https://bst-3662f855-5603-4e55-9e3c-2deb0490560a.bastion.azure.com/api/shareable-url/a738499f-5546-4e07-9b1b-eac3af26879d</t>
+  </si>
+  <si>
+    <t>https://bst-3662f855-5603-4e55-9e3c-2deb0490560a.bastion.azure.com/api/shareable-url/81f005cb-d609-4ec0-ba23-2cb329e0eef5</t>
+  </si>
+  <si>
+    <t>https://bst-3662f855-5603-4e55-9e3c-2deb0490560a.bastion.azure.com/api/shareable-url/46d3df84-28c0-4ff0-98d0-58b192721865</t>
+  </si>
+  <si>
+    <t>https://bst-3662f855-5603-4e55-9e3c-2deb0490560a.bastion.azure.com/api/shareable-url/f06475b3-00be-4797-90f4-1341b7fe8d24</t>
   </si>
 </sst>
 </file>
@@ -481,6 +529,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -490,9 +541,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -790,7 +838,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,17 +859,17 @@
       <c r="A1" s="1"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -865,17 +913,19 @@
       <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="E3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="24" t="s">
+      <c r="F3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="21" t="s">
         <v>59</v>
       </c>
       <c r="I3" s="8" t="s">
@@ -893,17 +943,19 @@
       <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="21" t="s">
         <v>59</v>
       </c>
       <c r="I4" s="8" t="s">
@@ -921,17 +973,19 @@
       <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="25" t="s">
+      <c r="F5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="21" t="s">
         <v>59</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -949,17 +1003,19 @@
       <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="25" t="s">
+      <c r="F6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="21" t="s">
         <v>59</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -979,13 +1035,13 @@
       <c r="E7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="25" t="s">
+      <c r="F7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="21" t="s">
         <v>59</v>
       </c>
       <c r="I7" s="8" t="s">
@@ -1003,17 +1059,19 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="E8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="25" t="s">
+      <c r="F8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="21" t="s">
         <v>59</v>
       </c>
       <c r="I8" s="8" t="s">
@@ -1031,17 +1089,19 @@
       <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="25" t="s">
+      <c r="F9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="21" t="s">
         <v>59</v>
       </c>
       <c r="I9" s="8" t="s">
@@ -1059,17 +1119,19 @@
       <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="25" t="s">
+      <c r="F10" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="21" t="s">
         <v>59</v>
       </c>
       <c r="I10" s="8" t="s">
@@ -1087,17 +1149,19 @@
       <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="E11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="25" t="s">
+      <c r="F11" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="21" t="s">
         <v>59</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -1117,13 +1181,13 @@
       <c r="E12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="25" t="s">
+      <c r="F12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="21" t="s">
         <v>59</v>
       </c>
       <c r="I12" s="8" t="s">
@@ -1141,17 +1205,19 @@
       <c r="C13" s="1">
         <v>3</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="E13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="25" t="s">
+      <c r="F13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="21" t="s">
         <v>59</v>
       </c>
       <c r="I13" s="8" t="s">
@@ -1169,17 +1235,19 @@
       <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="25" t="s">
+      <c r="F14" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="21" t="s">
         <v>59</v>
       </c>
       <c r="I14" s="8" t="s">
@@ -1197,17 +1265,19 @@
       <c r="C15" s="1">
         <v>3</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="E15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="25" t="s">
+      <c r="F15" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="21" t="s">
         <v>59</v>
       </c>
       <c r="I15" s="8" t="s">
@@ -1225,17 +1295,19 @@
       <c r="C16" s="1">
         <v>3</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="E16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="25" t="s">
+      <c r="F16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="21" t="s">
         <v>59</v>
       </c>
       <c r="I16" s="8" t="s">
@@ -1255,13 +1327,13 @@
       <c r="E17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="25" t="s">
+      <c r="F17" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="21" t="s">
         <v>59</v>
       </c>
       <c r="I17" s="8" t="s">
@@ -1279,17 +1351,19 @@
       <c r="C18" s="1">
         <v>4</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="E18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="25" t="s">
+      <c r="F18" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="21" t="s">
         <v>59</v>
       </c>
       <c r="I18" s="8" t="s">
@@ -1307,17 +1381,19 @@
       <c r="C19" s="1">
         <v>4</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="E19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="25" t="s">
+      <c r="F19" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="H19" s="21" t="s">
         <v>59</v>
       </c>
       <c r="I19" s="8" t="s">
@@ -1335,17 +1411,19 @@
       <c r="C20" s="1">
         <v>4</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="E20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="25" t="s">
+      <c r="F20" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="21" t="s">
         <v>59</v>
       </c>
       <c r="I20" s="8" t="s">
@@ -1363,17 +1441,19 @@
       <c r="C21" s="1">
         <v>4</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="E21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="25" t="s">
+      <c r="F21" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="21" t="s">
         <v>59</v>
       </c>
       <c r="I21" s="8" t="s">
@@ -1393,13 +1473,13 @@
       <c r="E22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="25" t="s">
+      <c r="F22" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="21" t="s">
         <v>59</v>
       </c>
       <c r="I22" s="8" t="s">
